--- a/biology/Zoologie/Abraeinae/Abraeinae.xlsx
+++ b/biology/Zoologie/Abraeinae/Abraeinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Abraeinae sont une sous-famille de coléoptères de la famille des Histeridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Abraeinae a été créée en 1819 par l'entomologiste britannique William Sharp Macleay (1792-1865)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Abraeinae a été créée en 1819 par l'entomologiste britannique William Sharp Macleay (1792-1865).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existerait au moins 440 espèces décrites dans la sous-famille des Abraeinae[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existerait au moins 440 espèces décrites dans la sous-famille des Abraeinae,.
 La plupart de ces coléoptères sont minuscules, avec des adultes mesurant moins de 2 mm de long. Ils présentent des formes diverses avec une petite espèce ovale qui les sépare de tous les autres histéridés, sauf pour les Bacaniini[pas clair]. Les Abraeinae n'ont pas de pièce basale séparée de l'édéage.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste des genres et tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 juin 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 juin 2022) :
 tribu Abraeini MacLeay, 1819
 genre Abraeus Leach, 1817
 genre Chaetabraeus Portevin, 1929
